--- a/reports/test_login_report.xlsx
+++ b/reports/test_login_report.xlsx
@@ -1141,12 +1141,12 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>Login functionality verified</t>
-        </is>
-      </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>PASSED</t>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Verify visibility of 'don't have an account' text on login page.</t>
+          <t>Verify visibility of "Don't have an account?" text on login page.</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">

--- a/reports/test_login_report.xlsx
+++ b/reports/test_login_report.xlsx
@@ -602,12 +602,12 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -700,12 +700,12 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -749,12 +749,12 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -847,12 +847,12 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -945,12 +945,12 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -994,12 +994,12 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1043,12 +1043,12 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Verify visibility of verification success message.</t>
+          <t>Verify visibility of OTP resent success message.</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1337,12 +1337,12 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1484,12 +1484,12 @@
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1582,12 +1582,12 @@
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1680,12 +1680,12 @@
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1778,12 +1778,12 @@
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1827,12 +1827,12 @@
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>Test not executed</t>
-        </is>
-      </c>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>Not Run</t>
+          <t>Login functionality verified</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
